--- a/TestData/TMTC0032668_VerifyActivityIsLinkedToTheRelatedOpportunity.xlsx
+++ b/TestData/TMTC0032668_VerifyActivityIsLinkedToTheRelatedOpportunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D51843D-3136-492E-8B7B-58A6972F3C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C752D-3F66-4155-98D8-1842177D9507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,12 +94,6 @@
     <t>Activity Test External Contact</t>
   </si>
   <si>
-    <t>Company Discussed Meeting</t>
-  </si>
-  <si>
-    <t>Company Discussed Meeting Description</t>
-  </si>
-  <si>
     <t>CompanyDiscussed</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>OpportunityCFTest</t>
+  </si>
+  <si>
+    <t>Opportunity Discussed Meeting</t>
+  </si>
+  <si>
+    <t>Opportunity Discussed Meeting Description</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,10 +554,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -574,16 +574,16 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
